--- a/Costos/CostosGrupo24.xlsx
+++ b/Costos/CostosGrupo24.xlsx
@@ -268,8 +268,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-[$Bs-400A]* #,##0.00_-;\-[$Bs-400A]* #,##0.00_-;_-[$Bs-400A]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-[$Bs-400A]* #,##0.000_-;\-[$Bs-400A]* #,##0.000_-;_-[$Bs-400A]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -701,7 +702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -777,45 +778,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -894,6 +856,48 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,7 +1187,7 @@
   <dimension ref="A1:Q92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1219,15 +1223,15 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -1261,10 +1265,10 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="53"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -1281,10 +1285,10 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="53"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -1301,10 +1305,10 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="53"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="40"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -1321,10 +1325,10 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="53"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="40"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -1341,10 +1345,10 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="53"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="40"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -1361,10 +1365,10 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="53"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -1381,10 +1385,10 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="53"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -1401,10 +1405,10 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="53"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="40"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -1421,10 +1425,10 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="53"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="40"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -1441,10 +1445,10 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="53"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="40"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -1461,10 +1465,10 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="53"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="40"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
@@ -1481,10 +1485,10 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="53"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="40"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -1501,10 +1505,10 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="53"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="40"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
@@ -1521,10 +1525,10 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="53"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -1541,10 +1545,10 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="53"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="40"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -1561,10 +1565,10 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="53"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="40"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
@@ -1581,10 +1585,10 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="53"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="40"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
@@ -1601,10 +1605,10 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="53"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="40"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -1613,18 +1617,18 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22" s="33">
         <v>9</v>
       </c>
-      <c r="E22" s="47"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="53"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="40"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
@@ -1643,10 +1647,10 @@
         <v>1491.5</v>
       </c>
       <c r="F23" s="5"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="53"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="40"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
@@ -1663,10 +1667,10 @@
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="53"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="40"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
@@ -1683,10 +1687,10 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="53"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="40"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
@@ -1703,10 +1707,10 @@
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="53"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="40"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -1723,10 +1727,10 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="53"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="40"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -1743,10 +1747,10 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="53"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="40"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -1763,10 +1767,10 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="53"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="40"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -1783,10 +1787,10 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="53"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="40"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
@@ -1795,18 +1799,18 @@
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="49">
+      <c r="D31" s="36">
         <v>1.35</v>
       </c>
-      <c r="E31" s="47"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="53"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="40"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -1815,22 +1819,22 @@
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="58">
+      <c r="D32" s="45">
         <f>SUM(D24:D31)</f>
         <v>90.5</v>
       </c>
-      <c r="E32" s="59">
+      <c r="E32" s="46">
         <f>SUM(D24:D31)</f>
         <v>90.5</v>
       </c>
       <c r="F32" s="5"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="53"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="40"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -1839,19 +1843,19 @@
     <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="60"/>
-      <c r="E33" s="61">
+      <c r="D33" s="47"/>
+      <c r="E33" s="48">
         <f>SUM(E23,E32)</f>
         <v>1582</v>
       </c>
       <c r="F33" s="5"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
@@ -1864,10 +1868,10 @@
       <c r="D34" s="5"/>
       <c r="E34" s="20"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -1908,15 +1912,15 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
@@ -1942,11 +1946,11 @@
     <row r="39" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
       <c r="F39" s="5"/>
       <c r="G39" s="14" t="s">
         <v>40</v>
@@ -2243,19 +2247,19 @@
     <row r="50" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="37"/>
+      <c r="D50" s="70"/>
       <c r="E50" s="19">
         <f>SUM(E41:E49)</f>
         <v>252.31</v>
       </c>
       <c r="F50" s="5"/>
-      <c r="G50" s="36" t="s">
+      <c r="G50" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="H50" s="37"/>
+      <c r="H50" s="70"/>
       <c r="I50" s="19">
         <f>SUM(I41:I49)</f>
         <v>221.57</v>
@@ -2273,10 +2277,10 @@
       <c r="D51" s="5"/>
       <c r="E51" s="20"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="40" t="s">
+      <c r="G51" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="H51" s="41"/>
+      <c r="H51" s="74"/>
       <c r="I51" s="21">
         <f>SUM(E50,I50)</f>
         <v>473.88</v>
@@ -2338,23 +2342,23 @@
     <row r="55" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="64"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="33" t="s">
+      <c r="G55" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="64"/>
       <c r="J55" s="5"/>
-      <c r="K55" s="33" t="s">
+      <c r="K55" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="64"/>
       <c r="N55" s="3"/>
     </row>
     <row r="56" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2698,10 +2702,10 @@
     <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="D66" s="37"/>
+      <c r="D66" s="70"/>
       <c r="E66" s="19">
         <f>SUM(E57:E65)</f>
         <v>439.67</v>
@@ -2717,10 +2721,10 @@
         <v>312</v>
       </c>
       <c r="J66" s="5"/>
-      <c r="K66" s="36" t="s">
+      <c r="K66" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="L66" s="37"/>
+      <c r="L66" s="70"/>
       <c r="M66" s="19">
         <f>SUM(M57:M65)</f>
         <v>218.5</v>
@@ -2730,28 +2734,28 @@
     <row r="67" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="40" t="s">
+      <c r="C67" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="D67" s="41"/>
+      <c r="D67" s="74"/>
       <c r="E67" s="21">
         <f>SUM(I51,E66)</f>
         <v>913.55</v>
       </c>
       <c r="F67" s="5"/>
-      <c r="G67" s="38" t="s">
+      <c r="G67" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="H67" s="39"/>
+      <c r="H67" s="72"/>
       <c r="I67" s="25">
         <f>SUM(I57:I66)</f>
         <v>449.95</v>
       </c>
       <c r="J67" s="5"/>
-      <c r="K67" s="31" t="s">
+      <c r="K67" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="L67" s="32"/>
+      <c r="L67" s="67"/>
       <c r="M67" s="21">
         <f>SUM(E50,I50,E66,I67,M66)</f>
         <v>1582</v>
@@ -2765,10 +2769,10 @@
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="42" t="s">
+      <c r="G68" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="H68" s="43"/>
+      <c r="H68" s="63"/>
       <c r="I68" s="21">
         <f>SUM(E50,I50,E66,I67)</f>
         <v>1363.5</v>
@@ -2830,237 +2834,232 @@
       <c r="M72" s="1"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="65"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C75" s="62"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="62"/>
-      <c r="H75" s="62"/>
-      <c r="I75" s="62"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="49"/>
     </row>
     <row r="76" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C76" s="62"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="62"/>
-      <c r="H76" s="62"/>
-      <c r="I76" s="62"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="49"/>
+      <c r="I76" s="49"/>
     </row>
     <row r="77" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C77" s="63"/>
-      <c r="D77" s="64" t="s">
+      <c r="C77" s="50"/>
+      <c r="D77" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="E77" s="65" t="s">
+      <c r="E77" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="F77" s="66" t="s">
+      <c r="F77" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="G77" s="62"/>
-      <c r="H77" s="62"/>
-      <c r="I77" s="62"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="49"/>
+      <c r="I77" s="49"/>
     </row>
     <row r="78" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C78" s="67" t="s">
+      <c r="C78" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D78" s="68">
+      <c r="D78" s="55">
         <v>1582</v>
       </c>
-      <c r="E78" s="68">
+      <c r="E78" s="55">
         <v>250</v>
       </c>
-      <c r="F78" s="68">
-        <v>6.84</v>
-      </c>
-      <c r="G78" s="62"/>
-      <c r="H78" s="62"/>
-      <c r="I78" s="62"/>
+      <c r="F78" s="75">
+        <f>D78/E78</f>
+        <v>6.3280000000000003</v>
+      </c>
+      <c r="G78" s="49"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="49"/>
     </row>
     <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C79" s="62"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="62"/>
-      <c r="F79" s="62"/>
-      <c r="G79" s="62"/>
-      <c r="H79" s="62"/>
-      <c r="I79" s="62"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="49"/>
+      <c r="F79" s="49"/>
+      <c r="G79" s="49"/>
+      <c r="H79" s="49"/>
+      <c r="I79" s="49"/>
     </row>
     <row r="80" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C80" s="69" t="s">
+      <c r="C80" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="D80" s="64" t="s">
+      <c r="D80" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E80" s="65" t="s">
+      <c r="E80" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="F80" s="66" t="s">
+      <c r="F80" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="G80" s="62"/>
-      <c r="H80" s="62"/>
-      <c r="I80" s="62"/>
+      <c r="G80" s="49"/>
+      <c r="H80" s="49"/>
+      <c r="I80" s="49"/>
     </row>
     <row r="81" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C81" s="67" t="s">
+      <c r="C81" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="68">
+      <c r="D81" s="55">
         <v>15</v>
       </c>
-      <c r="E81" s="68">
+      <c r="E81" s="55">
         <v>250</v>
       </c>
-      <c r="F81" s="68">
+      <c r="F81" s="55">
         <v>3750</v>
       </c>
-      <c r="G81" s="62"/>
-      <c r="H81" s="62"/>
-      <c r="I81" s="62"/>
+      <c r="G81" s="49"/>
+      <c r="H81" s="49"/>
+      <c r="I81" s="49"/>
     </row>
     <row r="82" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C82" s="62"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="62"/>
-      <c r="G82" s="62"/>
-      <c r="H82" s="62"/>
-      <c r="I82" s="62"/>
+      <c r="C82" s="49"/>
+      <c r="D82" s="49"/>
+      <c r="E82" s="49"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="49"/>
+      <c r="H82" s="49"/>
+      <c r="I82" s="49"/>
     </row>
     <row r="83" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C83" s="70" t="s">
+      <c r="C83" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="D83" s="71">
+      <c r="D83" s="58">
         <v>3750</v>
       </c>
-      <c r="E83" s="62"/>
-      <c r="F83" s="62"/>
-      <c r="G83" s="62"/>
-      <c r="H83" s="62"/>
-      <c r="I83" s="62"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="49"/>
+      <c r="H83" s="49"/>
+      <c r="I83" s="49"/>
     </row>
     <row r="84" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C84" s="74" t="s">
+      <c r="C84" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="D84" s="68">
+      <c r="D84" s="55">
         <v>500</v>
       </c>
-      <c r="E84" s="62"/>
-      <c r="F84" s="62"/>
-      <c r="G84" s="62"/>
-      <c r="H84" s="62"/>
-      <c r="I84" s="62"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="49"/>
+      <c r="I84" s="49"/>
     </row>
     <row r="85" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C85" s="74" t="s">
+      <c r="C85" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="D85" s="72">
+      <c r="D85" s="59">
         <v>1500</v>
       </c>
-      <c r="E85" s="62"/>
-      <c r="F85" s="62"/>
-      <c r="G85" s="62"/>
-      <c r="H85" s="62"/>
-      <c r="I85" s="62"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="49"/>
+      <c r="I85" s="49"/>
     </row>
     <row r="86" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C86" s="74" t="s">
+      <c r="C86" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="D86" s="68">
+      <c r="D86" s="55">
         <v>82</v>
       </c>
-      <c r="E86" s="62"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="62"/>
-      <c r="H86" s="62"/>
-      <c r="I86" s="62"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="49"/>
+      <c r="I86" s="49"/>
     </row>
     <row r="87" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C87" s="73" t="s">
+      <c r="C87" s="60" t="s">
         <v>78</v>
       </c>
       <c r="D87" s="19">
         <f>SUM(-D84,-D85,-D86,D83)</f>
         <v>1668</v>
       </c>
-      <c r="E87" s="62"/>
-      <c r="F87" s="62"/>
-      <c r="G87" s="62"/>
-      <c r="H87" s="62"/>
-      <c r="I87" s="62"/>
+      <c r="E87" s="49"/>
+      <c r="F87" s="49"/>
+      <c r="G87" s="49"/>
+      <c r="H87" s="49"/>
+      <c r="I87" s="49"/>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C88" s="62"/>
-      <c r="D88" s="62"/>
-      <c r="E88" s="62"/>
-      <c r="F88" s="62"/>
-      <c r="G88" s="62"/>
-      <c r="H88" s="62"/>
-      <c r="I88" s="62"/>
+      <c r="C88" s="49"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="49"/>
+      <c r="F88" s="49"/>
+      <c r="G88" s="49"/>
+      <c r="H88" s="49"/>
+      <c r="I88" s="49"/>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C89" s="62"/>
-      <c r="D89" s="62"/>
-      <c r="E89" s="62"/>
-      <c r="F89" s="62"/>
-      <c r="G89" s="62"/>
-      <c r="H89" s="62"/>
-      <c r="I89" s="62"/>
+      <c r="C89" s="49"/>
+      <c r="D89" s="49"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="49"/>
+      <c r="G89" s="49"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="49"/>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C90" s="62"/>
-      <c r="D90" s="62"/>
-      <c r="E90" s="62"/>
-      <c r="F90" s="62"/>
-      <c r="G90" s="62"/>
-      <c r="H90" s="62"/>
-      <c r="I90" s="62"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="49"/>
+      <c r="E90" s="49"/>
+      <c r="F90" s="49"/>
+      <c r="G90" s="49"/>
+      <c r="H90" s="49"/>
+      <c r="I90" s="49"/>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C91" s="62"/>
-      <c r="D91" s="62"/>
-      <c r="E91" s="62"/>
-      <c r="F91" s="62"/>
-      <c r="G91" s="62"/>
-      <c r="H91" s="62"/>
-      <c r="I91" s="62"/>
+      <c r="C91" s="49"/>
+      <c r="D91" s="49"/>
+      <c r="E91" s="49"/>
+      <c r="F91" s="49"/>
+      <c r="G91" s="49"/>
+      <c r="H91" s="49"/>
+      <c r="I91" s="49"/>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C92" s="62"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="62"/>
-      <c r="G92" s="62"/>
-      <c r="H92" s="62"/>
-      <c r="I92" s="62"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="49"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="49"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C74:I74"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="G55:I55"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="C37:I37"/>
     <mergeCell ref="K66:L66"/>
@@ -3071,6 +3070,12 @@
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="G50:H50"/>
     <mergeCell ref="C50:D50"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C74:I74"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="G55:I55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
